--- a/medicine/Enfance/Magdeleine_du_Genestoux/Magdeleine_du_Genestoux.xlsx
+++ b/medicine/Enfance/Magdeleine_du_Genestoux/Magdeleine_du_Genestoux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louise Pierrette Marie Magdelaine Calemard du Genestoux[1] (née à Lyon 2e le 12 novembre 1873, morte à Paris 6e le 23 mai 1942), connue aussi sous son nom de femme mariée Madeleine Arrigon, est une éditrice et un auteur français de romans pour enfants. Souvent qualifiée d'héritière de la comtesse de Ségur, elle est l'auteur de soixante-deux titres entre 1918 et 1942, année de sa mort, notamment pour la Bibliothèque rose des éditions Hachette[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louise Pierrette Marie Magdelaine Calemard du Genestoux (née à Lyon 2e le 12 novembre 1873, morte à Paris 6e le 23 mai 1942), connue aussi sous son nom de femme mariée Madeleine Arrigon, est une éditrice et un auteur français de romans pour enfants. Souvent qualifiée d'héritière de la comtesse de Ségur, elle est l'auteur de soixante-deux titres entre 1918 et 1942, année de sa mort, notamment pour la Bibliothèque rose des éditions Hachette.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 29 avril 1919, à Paris (16e arrondissement), Magdeleine épouse le journaliste et historien Louis-Jules Arrigon (1876-1960)[3]. Le couple n'a pas d'enfant. Sa sœur Suzanne, épouse du peintre Georges Auffray, est aussi peintre et portraitiste sous le nom d'Auffray-Genestoux.
-Magdeleine du Genestoux écrit son premier roman en 1918 : Noémie Hollemechette : journal d'une petite réfugiée belge, qui sera couronné par l'Académie française. En 1932, elle publie le roman de Mickey et Minnie illustré par Félix Lorioux[4]. Elle écrira ou traduira les textes d'autres livres avec les personnages de Walt Disney.
-Elle fut l'assistante de Robert Meunier du Houssoy, administrateur et responsable du secteur enfants des éditions Hachette, puis elle prit elle-même la direction de ce secteur[5]. En 1942, malgré l'insistance des autorités allemandes, elle refusa de publier des livres de propagande[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 29 avril 1919, à Paris (16e arrondissement), Magdeleine épouse le journaliste et historien Louis-Jules Arrigon (1876-1960). Le couple n'a pas d'enfant. Sa sœur Suzanne, épouse du peintre Georges Auffray, est aussi peintre et portraitiste sous le nom d'Auffray-Genestoux.
+Magdeleine du Genestoux écrit son premier roman en 1918 : Noémie Hollemechette : journal d'une petite réfugiée belge, qui sera couronné par l'Académie française. En 1932, elle publie le roman de Mickey et Minnie illustré par Félix Lorioux. Elle écrira ou traduira les textes d'autres livres avec les personnages de Walt Disney.
+Elle fut l'assistante de Robert Meunier du Houssoy, administrateur et responsable du secteur enfants des éditions Hachette, puis elle prit elle-même la direction de ce secteur. En 1942, malgré l'insistance des autorités allemandes, elle refusa de publier des livres de propagande.
 Jérôme Doucet lui dédia son roman pour enfants, Mademoiselle Graindsel (1936).
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(liste exhaustive)
 1918 : Noémie Hollemechette : journal d'une petite réfugiée belge - illustrations de Georges Dutriac, Hachette.
@@ -638,7 +654,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix de l'Académie française pour le roman Noémie Holleméchette (1918)</t>
         </is>
